--- a/biology/Botanique/Véronique_des_champs/Véronique_des_champs.xlsx
+++ b/biology/Botanique/Véronique_des_champs/Véronique_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_des_champs</t>
+          <t>Véronique_des_champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica arvensis
 La Véronique des champs (Veronica arvensis L.) est une espèce de plantes adventices des cultures et des jardins très commune dans toute l'Europe. Elle appartient au genre Veronica, classé dans la famille des Plantaginaceae (les véroniques appartenaient auparavant à la famille des Scrophulariaceae).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_des_champs</t>
+          <t>Véronique_des_champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante herbacée de petite taille (5 à 30 cm) [1] à tige érigée, parfois légèrement couchée, plus ou moins ramifiée. L'ensemble de la plante est velu. Feuilles ovales à limbe crénelé, les inférieures opposées et à court pétiole, les supérieures souvent alternes, sessiles, assimilables à des bractées, pétales long de 1,5 à 3 mm[2].
-Morphologie florale
-La floraison a lieu de mars à octobre.
-Inflorescence en racème se développant à l'aisselle des feuilles supérieures, à pédoncule d'abord assez court, mais qui grandit au cours de la floraison. Les fleurs, à quatre pétales de couleur bleue, sont très petites (moins de 5 mm). La corolle ne dépasse pratiquement pas le calice. Deux étamines proéminentes. Ovaire à deux carpelles.
-Fruit et graines
-Le fruit est une capsule bilobée en forme de cœur, ciliée, un peu aplatie, à nombreuses graines.
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée de petite taille (5 à 30 cm)  à tige érigée, parfois légèrement couchée, plus ou moins ramifiée. L'ensemble de la plante est velu. Feuilles ovales à limbe crénelé, les inférieures opposées et à court pétiole, les supérieures souvent alternes, sessiles, assimilables à des bractées, pétales long de 1,5 à 3 mm.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_des_champs</t>
+          <t>Véronique_des_champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +558,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mars à octobre.
+Inflorescence en racème se développant à l'aisselle des feuilles supérieures, à pédoncule d'abord assez court, mais qui grandit au cours de la floraison. Les fleurs, à quatre pétales de couleur bleue, sont très petites (moins de 5 mm). La corolle ne dépasse pratiquement pas le calice. Deux étamines proéminentes. Ovaire à deux carpelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_des_champs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_des_champs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule bilobée en forme de cœur, ciliée, un peu aplatie, à nombreuses graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_des_champs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_des_champs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante annuelle très commune dans les cultures et les jardins, également présente sur les terres en friche et les talus. Indifférente à la nature du sol, elle n'aime cependant pas les terres trop humides. Elle peut pousser en altitude jusqu'à 2 000 m[3]. On la rencontre dans toute l'Europe.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante annuelle très commune dans les cultures et les jardins, également présente sur les terres en friche et les talus. Indifférente à la nature du sol, elle n'aime cependant pas les terres trop humides. Elle peut pousser en altitude jusqu'à 2 000 m. On la rencontre dans toute l'Europe.
 </t>
         </is>
       </c>
